--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Testing\OpenCartProject\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\15-Sept-2023batch\opencart\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69013D04-8642-4CF0-9404-5F5896169253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3315BD60-ACC2-4D41-9A18-B0F87EEF7991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3899" yWindow="3301" windowWidth="21219" windowHeight="10162" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="17589" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -33,6 +42,9 @@
     <t>password</t>
   </si>
   <si>
+    <t>res</t>
+  </si>
+  <si>
     <t>lakshmi@yahoo.com</t>
   </si>
   <si>
@@ -64,9 +76,6 @@
   </si>
   <si>
     <t>abc123@gmail.com</t>
-  </si>
-  <si>
-    <t>result</t>
   </si>
 </sst>
 </file>
@@ -90,17 +99,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <sz val="16"/>
       <color theme="10"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -117,7 +128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,29 +136,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -464,106 +488,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884FCF78-0A3E-40BF-9E26-11C478AF56E2}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="35.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="37.23046875" customWidth="1"/>
+    <col min="2" max="2" width="17.3046875" customWidth="1"/>
+    <col min="3" max="3" width="18.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\15-Sept-2023batch\opencart\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Testing\OpenCartProject\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3315BD60-ACC2-4D41-9A18-B0F87EEF7991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82C7498-A66A-41C1-AF19-814AC90CE4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="17589" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -69,13 +60,16 @@
     <t>xyz</t>
   </si>
   <si>
-    <t>pavanoltraining@gmail.com</t>
-  </si>
-  <si>
     <t>test@123</t>
   </si>
   <si>
     <t>abc123@gmail.com</t>
+  </si>
+  <si>
+    <t>soumeshbhaumik99@gmail.com</t>
+  </si>
+  <si>
+    <t>test*123</t>
   </si>
 </sst>
 </file>
@@ -99,19 +93,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
-      <sz val="16"/>
+      <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -158,19 +150,17 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -491,80 +481,81 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.23046875" customWidth="1"/>
-    <col min="2" max="2" width="17.3046875" customWidth="1"/>
-    <col min="3" max="3" width="18.15234375" customWidth="1"/>
+    <col min="1" max="1" width="37.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -573,7 +564,7 @@
     <hyperlink ref="A4" r:id="rId2" xr:uid="{8456409A-CACC-4B7E-B78E-75E713148E0E}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{5E52A498-5B14-4BDC-BBF1-05425B8AC197}"/>
     <hyperlink ref="A5" r:id="rId4" xr:uid="{94E9D5A6-98A1-4A25-BDDE-C5B20EDA887E}"/>
-    <hyperlink ref="B2" r:id="rId5" xr:uid="{968262D0-AE14-41EF-AB8A-08B3F886E797}"/>
+    <hyperlink ref="B2" r:id="rId5" display="test@123" xr:uid="{968262D0-AE14-41EF-AB8A-08B3F886E797}"/>
     <hyperlink ref="A6" r:id="rId6" xr:uid="{75A4F8D6-7BF1-446B-9367-475FA4FB44C7}"/>
     <hyperlink ref="B6" r:id="rId7" xr:uid="{01D5649A-5E55-45E1-9B81-1CE430C208A1}"/>
   </hyperlinks>
